--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Wnt5a-Fzd3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Wnt5a-Fzd3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,16 +82,16 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Wnt5a</t>
+  </si>
+  <si>
+    <t>Fzd3</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Wnt5a</t>
-  </si>
-  <si>
-    <t>Fzd3</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.06488733333333334</v>
+        <v>0.068624</v>
       </c>
       <c r="H2">
-        <v>0.194662</v>
+        <v>0.205872</v>
       </c>
       <c r="I2">
-        <v>0.01118619931635934</v>
+        <v>0.01198115042951486</v>
       </c>
       <c r="J2">
-        <v>0.01123574233808859</v>
+        <v>0.01198115042951486</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.2078313333333333</v>
+        <v>0.1579376666666667</v>
       </c>
       <c r="N2">
-        <v>0.623494</v>
+        <v>0.473813</v>
       </c>
       <c r="O2">
-        <v>0.08621557350328635</v>
+        <v>0.05467876644486869</v>
       </c>
       <c r="P2">
-        <v>0.112461889302165</v>
+        <v>0.07340983674118848</v>
       </c>
       <c r="Q2">
-        <v>0.01348562100311111</v>
+        <v>0.01083831443733333</v>
       </c>
       <c r="R2">
-        <v>0.121370589028</v>
+        <v>0.097544829936</v>
       </c>
       <c r="S2">
-        <v>0.0009644245893819903</v>
+        <v>0.0006551145260762812</v>
       </c>
       <c r="T2">
-        <v>0.001263592811053767</v>
+        <v>0.0008795342970023062</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.06488733333333334</v>
+        <v>0.068624</v>
       </c>
       <c r="H3">
-        <v>0.194662</v>
+        <v>0.205872</v>
       </c>
       <c r="I3">
-        <v>0.01118619931635934</v>
+        <v>0.01198115042951486</v>
       </c>
       <c r="J3">
-        <v>0.01123574233808859</v>
+        <v>0.01198115042951486</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>1.494381</v>
       </c>
       <c r="O3">
-        <v>0.206640184103479</v>
+        <v>0.1724539210166233</v>
       </c>
       <c r="P3">
-        <v>0.2695469573039334</v>
+        <v>0.2315307204300726</v>
       </c>
       <c r="Q3">
-        <v>0.03232213269133334</v>
+        <v>0.034183467248</v>
       </c>
       <c r="R3">
-        <v>0.2908991942220001</v>
+        <v>0.307651205232</v>
       </c>
       <c r="S3">
-        <v>0.002311518286150706</v>
+        <v>0.002066196369859838</v>
       </c>
       <c r="T3">
-        <v>0.003028560160282761</v>
+        <v>0.002774004390526649</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.06488733333333334</v>
+        <v>0.068624</v>
       </c>
       <c r="H4">
-        <v>0.194662</v>
+        <v>0.205872</v>
       </c>
       <c r="I4">
-        <v>0.01118619931635934</v>
+        <v>0.01198115042951486</v>
       </c>
       <c r="J4">
-        <v>0.01123574233808859</v>
+        <v>0.01198115042951486</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>1.6877555</v>
+        <v>0.02135966666666667</v>
       </c>
       <c r="N4">
-        <v>3.375511</v>
+        <v>0.064079</v>
       </c>
       <c r="O4">
-        <v>0.7001389349335798</v>
+        <v>0.00739481752299059</v>
       </c>
       <c r="P4">
-        <v>0.6088532438487625</v>
+        <v>0.0099280284174107</v>
       </c>
       <c r="Q4">
-        <v>0.1095139537136667</v>
+        <v>0.001465785765333333</v>
       </c>
       <c r="R4">
-        <v>0.6570837222820001</v>
+        <v>0.013192071888</v>
       </c>
       <c r="S4">
-        <v>0.007831893675310569</v>
+        <v>8.859842114176272E-05</v>
       </c>
       <c r="T4">
-        <v>0.006840918169594116</v>
+        <v>0.0001189492019374959</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
       </c>
       <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>0.068624</v>
+      </c>
+      <c r="H5">
+        <v>0.205872</v>
+      </c>
+      <c r="I5">
+        <v>0.01198115042951486</v>
+      </c>
+      <c r="J5">
+        <v>0.01198115042951486</v>
+      </c>
+      <c r="K5">
         <v>2</v>
       </c>
-      <c r="F5">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G5">
-        <v>0.06488733333333334</v>
-      </c>
-      <c r="H5">
-        <v>0.194662</v>
-      </c>
-      <c r="I5">
-        <v>0.01118619931635934</v>
-      </c>
-      <c r="J5">
-        <v>0.01123574233808859</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.016887</v>
+        <v>2.21104</v>
       </c>
       <c r="N5">
-        <v>0.050661</v>
+        <v>4.422079999999999</v>
       </c>
       <c r="O5">
-        <v>0.007005307459654769</v>
+        <v>0.7654724950155174</v>
       </c>
       <c r="P5">
-        <v>0.009137909545139137</v>
+        <v>0.6851314144113283</v>
       </c>
       <c r="Q5">
-        <v>0.001095752398</v>
+        <v>0.15173040896</v>
       </c>
       <c r="R5">
-        <v>0.009861771582</v>
+        <v>0.9103824537599998</v>
       </c>
       <c r="S5">
-        <v>7.836276551607717E-05</v>
+        <v>0.009171241112436978</v>
       </c>
       <c r="T5">
-        <v>0.0001026711971579436</v>
+        <v>0.008208662540048411</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,10 +770,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -791,10 +791,10 @@
         <v>16.977119</v>
       </c>
       <c r="I6">
-        <v>0.9755855634461335</v>
+        <v>0.9880188495704851</v>
       </c>
       <c r="J6">
-        <v>0.9799063747781704</v>
+        <v>0.9880188495704851</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.2078313333333333</v>
+        <v>0.1579376666666667</v>
       </c>
       <c r="N6">
-        <v>0.623494</v>
+        <v>0.473813</v>
       </c>
       <c r="O6">
-        <v>0.08621557350328635</v>
+        <v>0.05467876644486869</v>
       </c>
       <c r="P6">
-        <v>0.112461889302165</v>
+        <v>0.07340983674118848</v>
       </c>
       <c r="Q6">
-        <v>1.176125759309556</v>
+        <v>0.8937755205274446</v>
       </c>
       <c r="R6">
-        <v>10.585131833786</v>
+        <v>8.043979684747001</v>
       </c>
       <c r="S6">
-        <v>0.08411066885403515</v>
+        <v>0.05402365191879241</v>
       </c>
       <c r="T6">
-        <v>0.1102021222467884</v>
+        <v>0.07253030244418616</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,10 +832,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -853,10 +853,10 @@
         <v>16.977119</v>
       </c>
       <c r="I7">
-        <v>0.9755855634461335</v>
+        <v>0.9880188495704851</v>
       </c>
       <c r="J7">
-        <v>0.9799063747781704</v>
+        <v>0.9880188495704851</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>1.494381</v>
       </c>
       <c r="O7">
-        <v>0.206640184103479</v>
+        <v>0.1724539210166233</v>
       </c>
       <c r="P7">
-        <v>0.2695469573039334</v>
+        <v>0.2315307204300726</v>
       </c>
       <c r="Q7">
         <v>2.818920452037667</v>
@@ -883,10 +883,10 @@
         <v>25.37028406833901</v>
       </c>
       <c r="S7">
-        <v>0.2015951804392054</v>
+        <v>0.1703877246467634</v>
       </c>
       <c r="T7">
-        <v>0.2641307817641837</v>
+        <v>0.2287567160395459</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,13 +894,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -915,40 +915,40 @@
         <v>16.977119</v>
       </c>
       <c r="I8">
-        <v>0.9755855634461335</v>
+        <v>0.9880188495704851</v>
       </c>
       <c r="J8">
-        <v>0.9799063747781704</v>
+        <v>0.9880188495704851</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>1.6877555</v>
+        <v>0.02135966666666667</v>
       </c>
       <c r="N8">
-        <v>3.375511</v>
+        <v>0.064079</v>
       </c>
       <c r="O8">
-        <v>0.7001389349335798</v>
+        <v>0.00739481752299059</v>
       </c>
       <c r="P8">
-        <v>0.6088532438487625</v>
+        <v>0.0099280284174107</v>
       </c>
       <c r="Q8">
-        <v>9.551075322134835</v>
+        <v>0.1208752009334445</v>
       </c>
       <c r="R8">
-        <v>57.30645193280901</v>
+        <v>1.087876808401</v>
       </c>
       <c r="S8">
-        <v>0.6830454373277522</v>
+        <v>0.007306219101848827</v>
       </c>
       <c r="T8">
-        <v>0.5966191749517703</v>
+        <v>0.009809079215473204</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,10 +956,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
         <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>25</v>
@@ -977,288 +977,40 @@
         <v>16.977119</v>
       </c>
       <c r="I9">
-        <v>0.9755855634461335</v>
+        <v>0.9880188495704851</v>
       </c>
       <c r="J9">
-        <v>0.9799063747781704</v>
+        <v>0.9880188495704851</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.016887</v>
+        <v>2.21104</v>
       </c>
       <c r="N9">
-        <v>0.050661</v>
+        <v>4.422079999999999</v>
       </c>
       <c r="O9">
-        <v>0.007005307459654769</v>
+        <v>0.7654724950155174</v>
       </c>
       <c r="P9">
-        <v>0.009137909545139137</v>
+        <v>0.6851314144113283</v>
       </c>
       <c r="Q9">
-        <v>0.09556420285100004</v>
+        <v>12.51236306458667</v>
       </c>
       <c r="R9">
-        <v>0.8600778256590002</v>
+        <v>75.07417838751999</v>
       </c>
       <c r="S9">
-        <v>0.006834276825140699</v>
+        <v>0.7563012539030805</v>
       </c>
       <c r="T9">
-        <v>0.008954295815428132</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.5</v>
-      </c>
-      <c r="G10">
-        <v>0.07673250000000001</v>
-      </c>
-      <c r="H10">
-        <v>0.153465</v>
-      </c>
-      <c r="I10">
-        <v>0.01322823723750722</v>
-      </c>
-      <c r="J10">
-        <v>0.008857882883740871</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>0.2078313333333333</v>
-      </c>
-      <c r="N10">
-        <v>0.623494</v>
-      </c>
-      <c r="O10">
-        <v>0.08621557350328635</v>
-      </c>
-      <c r="P10">
-        <v>0.112461889302165</v>
-      </c>
-      <c r="Q10">
-        <v>0.015947417785</v>
-      </c>
-      <c r="R10">
-        <v>0.09568450671000001</v>
-      </c>
-      <c r="S10">
-        <v>0.001140480059869213</v>
-      </c>
-      <c r="T10">
-        <v>0.0009961742443228077</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0.5</v>
-      </c>
-      <c r="G11">
-        <v>0.07673250000000001</v>
-      </c>
-      <c r="H11">
-        <v>0.153465</v>
-      </c>
-      <c r="I11">
-        <v>0.01322823723750722</v>
-      </c>
-      <c r="J11">
-        <v>0.008857882883740871</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>0.498127</v>
-      </c>
-      <c r="N11">
-        <v>1.494381</v>
-      </c>
-      <c r="O11">
-        <v>0.206640184103479</v>
-      </c>
-      <c r="P11">
-        <v>0.2695469573039334</v>
-      </c>
-      <c r="Q11">
-        <v>0.03822253002750001</v>
-      </c>
-      <c r="R11">
-        <v>0.229335180165</v>
-      </c>
-      <c r="S11">
-        <v>0.002733485378122988</v>
-      </c>
-      <c r="T11">
-        <v>0.002387615379466943</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0.5</v>
-      </c>
-      <c r="G12">
-        <v>0.07673250000000001</v>
-      </c>
-      <c r="H12">
-        <v>0.153465</v>
-      </c>
-      <c r="I12">
-        <v>0.01322823723750722</v>
-      </c>
-      <c r="J12">
-        <v>0.008857882883740871</v>
-      </c>
-      <c r="K12">
-        <v>2</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>1.6877555</v>
-      </c>
-      <c r="N12">
-        <v>3.375511</v>
-      </c>
-      <c r="O12">
-        <v>0.7001389349335798</v>
-      </c>
-      <c r="P12">
-        <v>0.6088532438487625</v>
-      </c>
-      <c r="Q12">
-        <v>0.12950569890375</v>
-      </c>
-      <c r="R12">
-        <v>0.5180227956150001</v>
-      </c>
-      <c r="S12">
-        <v>0.009261603930517023</v>
-      </c>
-      <c r="T12">
-        <v>0.00539315072739806</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0.5</v>
-      </c>
-      <c r="G13">
-        <v>0.07673250000000001</v>
-      </c>
-      <c r="H13">
-        <v>0.153465</v>
-      </c>
-      <c r="I13">
-        <v>0.01322823723750722</v>
-      </c>
-      <c r="J13">
-        <v>0.008857882883740871</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M13">
-        <v>0.016887</v>
-      </c>
-      <c r="N13">
-        <v>0.050661</v>
-      </c>
-      <c r="O13">
-        <v>0.007005307459654769</v>
-      </c>
-      <c r="P13">
-        <v>0.009137909545139137</v>
-      </c>
-      <c r="Q13">
-        <v>0.0012957817275</v>
-      </c>
-      <c r="R13">
-        <v>0.007774690365000001</v>
-      </c>
-      <c r="S13">
-        <v>9.26678689979923E-05</v>
-      </c>
-      <c r="T13">
-        <v>8.094253255306028E-05</v>
+        <v>0.6769227518712799</v>
       </c>
     </row>
   </sheetData>
